--- a/attendance-files/EsIndia/EsIndia Attendance - A.xlsx
+++ b/attendance-files/EsIndia/EsIndia Attendance - A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="194">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -937,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1043,10 +1043,13 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1554,11 +1557,11 @@
       </c>
       <c r="E7" s="30">
         <f t="shared" ref="E7:E92" si="1">COUNTIF(G7:U7,"A")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:U7,"P")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>35</v>
@@ -1587,12 +1590,22 @@
       <c r="O7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
+      <c r="P7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="38"/>
       <c r="V7" s="19"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
@@ -1615,11 +1628,11 @@
       </c>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>35</v>
@@ -1648,12 +1661,22 @@
       <c r="O8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
+      <c r="P8" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U8" s="38"/>
       <c r="V8" s="19"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -1676,11 +1699,11 @@
       </c>
       <c r="E9" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>35</v>
@@ -1709,12 +1732,22 @@
       <c r="O9" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
+      <c r="P9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="38"/>
       <c r="V9" s="19"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -1741,7 +1774,7 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>35</v>
@@ -1770,12 +1803,22 @@
       <c r="O10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
+      <c r="P10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="38"/>
       <c r="V10" s="19"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -1802,7 +1845,7 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>35</v>
@@ -1831,12 +1874,22 @@
       <c r="O11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
+      <c r="P11" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="38"/>
       <c r="V11" s="19"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -1859,11 +1912,11 @@
       </c>
       <c r="E12" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>35</v>
@@ -1892,12 +1945,22 @@
       <c r="O12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
+      <c r="P12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="38"/>
       <c r="V12" s="19"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -1920,11 +1983,11 @@
       </c>
       <c r="E13" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>35</v>
@@ -1953,12 +2016,22 @@
       <c r="O13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
+      <c r="P13" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="38"/>
       <c r="V13" s="19"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -1981,11 +2054,11 @@
       </c>
       <c r="E14" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>35</v>
@@ -2014,12 +2087,22 @@
       <c r="O14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
+      <c r="P14" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="38"/>
       <c r="V14" s="19"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -2042,11 +2125,11 @@
       </c>
       <c r="E15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>35</v>
@@ -2075,12 +2158,22 @@
       <c r="O15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
+      <c r="P15" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="38"/>
       <c r="V15" s="19"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -2107,7 +2200,7 @@
       </c>
       <c r="F16" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>35</v>
@@ -2128,7 +2221,7 @@
         <v>35</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N16" s="34" t="s">
         <v>35</v>
@@ -2136,12 +2229,22 @@
       <c r="O16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
+      <c r="P16" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="38"/>
       <c r="V16" s="19"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -2164,11 +2267,11 @@
       </c>
       <c r="E17" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>35</v>
@@ -2197,12 +2300,22 @@
       <c r="O17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
+      <c r="P17" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="38"/>
       <c r="V17" s="19"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
@@ -2229,7 +2342,7 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>35</v>
@@ -2258,12 +2371,22 @@
       <c r="O18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
+      <c r="P18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="38"/>
       <c r="V18" s="19"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -2290,7 +2413,7 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>35</v>
@@ -2319,12 +2442,22 @@
       <c r="O19" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
+      <c r="P19" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="38"/>
       <c r="V19" s="19"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -2347,11 +2480,11 @@
       </c>
       <c r="E20" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G20" s="34" t="s">
         <v>35</v>
@@ -2380,12 +2513,22 @@
       <c r="O20" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
+      <c r="P20" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="38"/>
       <c r="V20" s="19"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -2408,11 +2551,11 @@
       </c>
       <c r="E21" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>35</v>
@@ -2441,12 +2584,22 @@
       <c r="O21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
+      <c r="P21" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U21" s="38"/>
       <c r="V21" s="19"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -2469,11 +2622,11 @@
       </c>
       <c r="E22" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>35</v>
@@ -2502,12 +2655,22 @@
       <c r="O22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
+      <c r="P22" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="38"/>
       <c r="V22" s="19"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -2530,11 +2693,11 @@
       </c>
       <c r="E23" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>35</v>
@@ -2563,12 +2726,22 @@
       <c r="O23" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
+      <c r="P23" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U23" s="38"/>
       <c r="V23" s="19"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -2591,11 +2764,11 @@
       </c>
       <c r="E24" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>35</v>
@@ -2624,12 +2797,22 @@
       <c r="O24" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
+      <c r="P24" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U24" s="38"/>
       <c r="V24" s="19"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -2652,11 +2835,11 @@
       </c>
       <c r="E25" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>35</v>
@@ -2685,12 +2868,22 @@
       <c r="O25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
+      <c r="P25" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T25" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U25" s="38"/>
       <c r="V25" s="19"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -2713,11 +2906,11 @@
       </c>
       <c r="E26" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>35</v>
@@ -2746,12 +2939,22 @@
       <c r="O26" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="36"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
+      <c r="P26" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T26" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U26" s="38"/>
       <c r="V26" s="19"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -2778,7 +2981,7 @@
       </c>
       <c r="F27" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>35</v>
@@ -2807,12 +3010,22 @@
       <c r="O27" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
+      <c r="P27" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T27" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="38"/>
       <c r="V27" s="19"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -2835,11 +3048,11 @@
       </c>
       <c r="E28" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>35</v>
@@ -2868,12 +3081,22 @@
       <c r="O28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
+      <c r="P28" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U28" s="38"/>
       <c r="V28" s="19"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -2900,7 +3123,7 @@
       </c>
       <c r="F29" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>35</v>
@@ -2929,12 +3152,22 @@
       <c r="O29" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
+      <c r="P29" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U29" s="38"/>
       <c r="V29" s="19"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
@@ -2961,7 +3194,7 @@
       </c>
       <c r="F30" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G30" s="34" t="s">
         <v>35</v>
@@ -2990,12 +3223,22 @@
       <c r="O30" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
+      <c r="P30" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" s="38"/>
       <c r="V30" s="19"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
@@ -3018,11 +3261,11 @@
       </c>
       <c r="E31" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>35</v>
@@ -3051,12 +3294,22 @@
       <c r="O31" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
+      <c r="P31" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S31" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U31" s="38"/>
       <c r="V31" s="19"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
@@ -3079,11 +3332,11 @@
       </c>
       <c r="E32" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G32" s="34" t="s">
         <v>35</v>
@@ -3112,12 +3365,22 @@
       <c r="O32" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
+      <c r="P32" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U32" s="38"/>
       <c r="V32" s="19"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
@@ -3144,7 +3407,7 @@
       </c>
       <c r="F33" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>35</v>
@@ -3173,12 +3436,22 @@
       <c r="O33" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
+      <c r="P33" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33" s="38"/>
       <c r="V33" s="19"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
@@ -3201,11 +3474,11 @@
       </c>
       <c r="E34" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>35</v>
@@ -3234,12 +3507,22 @@
       <c r="O34" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
+      <c r="P34" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S34" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T34" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U34" s="38"/>
       <c r="V34" s="19"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
@@ -3266,7 +3549,7 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>35</v>
@@ -3295,12 +3578,22 @@
       <c r="O35" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
+      <c r="P35" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="38"/>
       <c r="V35" s="19"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
@@ -3323,11 +3616,11 @@
       </c>
       <c r="E36" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>35</v>
@@ -3356,12 +3649,22 @@
       <c r="O36" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
+      <c r="P36" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S36" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T36" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U36" s="38"/>
       <c r="V36" s="19"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
@@ -3388,7 +3691,7 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>35</v>
@@ -3417,12 +3720,22 @@
       <c r="O37" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
+      <c r="P37" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S37" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T37" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U37" s="38"/>
       <c r="V37" s="19"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
@@ -3445,11 +3758,11 @@
       </c>
       <c r="E38" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>35</v>
@@ -3478,12 +3791,22 @@
       <c r="O38" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
+      <c r="P38" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" s="38"/>
       <c r="V38" s="19"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
@@ -3510,7 +3833,7 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G39" s="34" t="s">
         <v>35</v>
@@ -3539,12 +3862,22 @@
       <c r="O39" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
+      <c r="P39" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R39" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T39" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" s="38"/>
       <c r="V39" s="19"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
@@ -3567,11 +3900,11 @@
       </c>
       <c r="E40" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G40" s="34" t="s">
         <v>35</v>
@@ -3600,12 +3933,22 @@
       <c r="O40" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
+      <c r="P40" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T40" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U40" s="38"/>
       <c r="V40" s="19"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
@@ -3628,11 +3971,11 @@
       </c>
       <c r="E41" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>35</v>
@@ -3661,12 +4004,22 @@
       <c r="O41" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
+      <c r="P41" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U41" s="38"/>
       <c r="V41" s="19"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
@@ -3689,11 +4042,11 @@
       </c>
       <c r="E42" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>35</v>
@@ -3722,12 +4075,22 @@
       <c r="O42" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
+      <c r="P42" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S42" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T42" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U42" s="38"/>
       <c r="V42" s="19"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
@@ -3750,11 +4113,11 @@
       </c>
       <c r="E43" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G43" s="34" t="s">
         <v>35</v>
@@ -3783,12 +4146,22 @@
       <c r="O43" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
+      <c r="P43" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S43" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U43" s="38"/>
       <c r="V43" s="19"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
@@ -3811,11 +4184,11 @@
       </c>
       <c r="E44" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G44" s="34" t="s">
         <v>35</v>
@@ -3844,12 +4217,22 @@
       <c r="O44" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
+      <c r="P44" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T44" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U44" s="38"/>
       <c r="V44" s="19"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
@@ -3872,11 +4255,11 @@
       </c>
       <c r="E45" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G45" s="34" t="s">
         <v>35</v>
@@ -3905,12 +4288,22 @@
       <c r="O45" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
+      <c r="P45" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R45" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S45" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U45" s="38"/>
       <c r="V45" s="19"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
@@ -3933,11 +4326,11 @@
       </c>
       <c r="E46" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>35</v>
@@ -3966,12 +4359,22 @@
       <c r="O46" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
+      <c r="P46" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S46" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U46" s="38"/>
       <c r="V46" s="19"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
@@ -3998,7 +4401,7 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G47" s="34" t="s">
         <v>35</v>
@@ -4027,12 +4430,22 @@
       <c r="O47" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
+      <c r="P47" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R47" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S47" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T47" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U47" s="38"/>
       <c r="V47" s="19"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
@@ -4055,11 +4468,11 @@
       </c>
       <c r="E48" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G48" s="34" t="s">
         <v>35</v>
@@ -4088,12 +4501,22 @@
       <c r="O48" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
+      <c r="P48" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R48" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T48" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U48" s="38"/>
       <c r="V48" s="19"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
@@ -4120,7 +4543,7 @@
       </c>
       <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G49" s="34" t="s">
         <v>35</v>
@@ -4149,12 +4572,22 @@
       <c r="O49" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
+      <c r="P49" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S49" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T49" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U49" s="38"/>
       <c r="V49" s="19"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
@@ -4177,11 +4610,11 @@
       </c>
       <c r="E50" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>35</v>
@@ -4210,12 +4643,22 @@
       <c r="O50" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
+      <c r="P50" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q50" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R50" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S50" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T50" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U50" s="38"/>
       <c r="V50" s="19"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
@@ -4242,7 +4685,7 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G51" s="34" t="s">
         <v>35</v>
@@ -4271,12 +4714,22 @@
       <c r="O51" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="36"/>
+      <c r="P51" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R51" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T51" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U51" s="38"/>
       <c r="V51" s="19"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
@@ -4299,11 +4752,11 @@
       </c>
       <c r="E52" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>35</v>
@@ -4332,12 +4785,22 @@
       <c r="O52" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="36"/>
+      <c r="P52" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S52" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T52" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U52" s="38"/>
       <c r="V52" s="19"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
@@ -4360,11 +4823,11 @@
       </c>
       <c r="E53" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G53" s="34" t="s">
         <v>35</v>
@@ -4393,12 +4856,22 @@
       <c r="O53" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="36"/>
-      <c r="S53" s="36"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
+      <c r="P53" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S53" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T53" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U53" s="38"/>
       <c r="V53" s="19"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
@@ -4421,11 +4894,11 @@
       </c>
       <c r="E54" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G54" s="34" t="s">
         <v>35</v>
@@ -4454,12 +4927,22 @@
       <c r="O54" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
+      <c r="P54" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R54" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S54" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U54" s="38"/>
       <c r="V54" s="19"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
@@ -4486,7 +4969,7 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G55" s="34" t="s">
         <v>10</v>
@@ -4515,12 +4998,22 @@
       <c r="O55" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
+      <c r="P55" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R55" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S55" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T55" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U55" s="38"/>
       <c r="V55" s="19"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
@@ -4547,7 +5040,7 @@
       </c>
       <c r="F56" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G56" s="34" t="s">
         <v>35</v>
@@ -4576,12 +5069,22 @@
       <c r="O56" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
+      <c r="P56" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S56" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T56" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U56" s="38"/>
       <c r="V56" s="19"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
@@ -4604,11 +5107,11 @@
       </c>
       <c r="E57" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G57" s="34" t="s">
         <v>35</v>
@@ -4637,12 +5140,22 @@
       <c r="O57" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
+      <c r="P57" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R57" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S57" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T57" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U57" s="38"/>
       <c r="V57" s="19"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
@@ -4650,7 +5163,7 @@
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" ht="15.0" customHeight="1">
       <c r="A58" s="30">
         <v>52.0</v>
       </c>
@@ -4665,11 +5178,11 @@
       </c>
       <c r="E58" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G58" s="34" t="s">
         <v>35</v>
@@ -4698,12 +5211,22 @@
       <c r="O58" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
+      <c r="P58" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S58" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T58" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U58" s="38"/>
       <c r="V58" s="19"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
@@ -4726,11 +5249,11 @@
       </c>
       <c r="E59" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G59" s="34" t="s">
         <v>35</v>
@@ -4759,12 +5282,22 @@
       <c r="O59" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="36"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
+      <c r="P59" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R59" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S59" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T59" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U59" s="38"/>
       <c r="V59" s="19"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
@@ -4787,11 +5320,11 @@
       </c>
       <c r="E60" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G60" s="34" t="s">
         <v>35</v>
@@ -4820,12 +5353,22 @@
       <c r="O60" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
+      <c r="P60" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R60" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T60" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U60" s="38"/>
       <c r="V60" s="19"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
@@ -4852,7 +5395,7 @@
       </c>
       <c r="F61" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G61" s="34" t="s">
         <v>35</v>
@@ -4881,12 +5424,22 @@
       <c r="O61" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
+      <c r="P61" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R61" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S61" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T61" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U61" s="38"/>
       <c r="V61" s="19"/>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
@@ -4909,11 +5462,11 @@
       </c>
       <c r="E62" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G62" s="34" t="s">
         <v>35</v>
@@ -4942,12 +5495,22 @@
       <c r="O62" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
+      <c r="P62" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R62" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S62" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="38"/>
       <c r="V62" s="19"/>
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
@@ -4970,11 +5533,11 @@
       </c>
       <c r="E63" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G63" s="34" t="s">
         <v>35</v>
@@ -5003,12 +5566,22 @@
       <c r="O63" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="36"/>
-      <c r="R63" s="36"/>
-      <c r="S63" s="36"/>
-      <c r="T63" s="36"/>
-      <c r="U63" s="36"/>
+      <c r="P63" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R63" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S63" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T63" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U63" s="38"/>
       <c r="V63" s="19"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
@@ -5031,11 +5604,11 @@
       </c>
       <c r="E64" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G64" s="34" t="s">
         <v>10</v>
@@ -5064,12 +5637,22 @@
       <c r="O64" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
+      <c r="P64" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q64" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R64" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S64" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U64" s="38"/>
       <c r="V64" s="19"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
@@ -5096,7 +5679,7 @@
       </c>
       <c r="F65" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G65" s="34" t="s">
         <v>35</v>
@@ -5125,12 +5708,22 @@
       <c r="O65" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="36"/>
-      <c r="R65" s="36"/>
-      <c r="S65" s="36"/>
-      <c r="T65" s="36"/>
-      <c r="U65" s="36"/>
+      <c r="P65" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R65" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S65" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T65" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U65" s="38"/>
       <c r="V65" s="19"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
@@ -5157,7 +5750,7 @@
       </c>
       <c r="F66" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G66" s="34" t="s">
         <v>35</v>
@@ -5186,12 +5779,22 @@
       <c r="O66" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
+      <c r="P66" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q66" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R66" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S66" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T66" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U66" s="38"/>
       <c r="V66" s="19"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
@@ -5218,7 +5821,7 @@
       </c>
       <c r="F67" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G67" s="34" t="s">
         <v>35</v>
@@ -5247,12 +5850,22 @@
       <c r="O67" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
+      <c r="P67" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q67" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R67" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S67" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T67" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U67" s="38"/>
       <c r="V67" s="19"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
@@ -5279,7 +5892,7 @@
       </c>
       <c r="F68" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G68" s="34" t="s">
         <v>35</v>
@@ -5308,12 +5921,22 @@
       <c r="O68" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
+      <c r="P68" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R68" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S68" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T68" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U68" s="38"/>
       <c r="V68" s="19"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
@@ -5340,7 +5963,7 @@
       </c>
       <c r="F69" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G69" s="34" t="s">
         <v>35</v>
@@ -5369,12 +5992,22 @@
       <c r="O69" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="36"/>
-      <c r="R69" s="36"/>
-      <c r="S69" s="36"/>
-      <c r="T69" s="36"/>
-      <c r="U69" s="36"/>
+      <c r="P69" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S69" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T69" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U69" s="38"/>
       <c r="V69" s="19"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
@@ -5401,7 +6034,7 @@
       </c>
       <c r="F70" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G70" s="34" t="s">
         <v>35</v>
@@ -5430,12 +6063,22 @@
       <c r="O70" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="36"/>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
+      <c r="P70" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q70" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R70" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S70" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T70" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U70" s="38"/>
       <c r="V70" s="19"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
@@ -5458,11 +6101,11 @@
       </c>
       <c r="E71" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G71" s="34" t="s">
         <v>10</v>
@@ -5491,12 +6134,22 @@
       <c r="O71" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
+      <c r="P71" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q71" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R71" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S71" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T71" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U71" s="38"/>
       <c r="V71" s="19"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
@@ -5519,11 +6172,11 @@
       </c>
       <c r="E72" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G72" s="34" t="s">
         <v>35</v>
@@ -5552,12 +6205,22 @@
       <c r="O72" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
+      <c r="P72" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q72" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S72" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T72" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U72" s="38"/>
       <c r="V72" s="19"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
@@ -5580,11 +6243,11 @@
       </c>
       <c r="E73" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G73" s="34" t="s">
         <v>35</v>
@@ -5613,12 +6276,22 @@
       <c r="O73" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="36"/>
+      <c r="P73" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q73" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R73" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S73" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T73" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U73" s="38"/>
       <c r="V73" s="19"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
@@ -5641,11 +6314,11 @@
       </c>
       <c r="E74" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G74" s="34" t="s">
         <v>35</v>
@@ -5674,12 +6347,22 @@
       <c r="O74" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
+      <c r="P74" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q74" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R74" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S74" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T74" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U74" s="38"/>
       <c r="V74" s="19"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
@@ -5702,11 +6385,11 @@
       </c>
       <c r="E75" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G75" s="34" t="s">
         <v>35</v>
@@ -5735,12 +6418,22 @@
       <c r="O75" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="36"/>
-      <c r="R75" s="36"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="36"/>
+      <c r="P75" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R75" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S75" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T75" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U75" s="38"/>
       <c r="V75" s="19"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
@@ -5763,11 +6456,11 @@
       </c>
       <c r="E76" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G76" s="34" t="s">
         <v>35</v>
@@ -5796,12 +6489,22 @@
       <c r="O76" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
+      <c r="P76" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R76" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S76" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T76" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U76" s="38"/>
       <c r="V76" s="19"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
@@ -5824,11 +6527,11 @@
       </c>
       <c r="E77" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G77" s="34" t="s">
         <v>35</v>
@@ -5857,12 +6560,22 @@
       <c r="O77" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
+      <c r="P77" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q77" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R77" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S77" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T77" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U77" s="38"/>
       <c r="V77" s="19"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
@@ -5885,11 +6598,11 @@
       </c>
       <c r="E78" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G78" s="34" t="s">
         <v>35</v>
@@ -5918,12 +6631,22 @@
       <c r="O78" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
+      <c r="P78" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="R78" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S78" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T78" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U78" s="38"/>
       <c r="V78" s="19"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
@@ -5950,7 +6673,7 @@
       </c>
       <c r="F79" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G79" s="34" t="s">
         <v>35</v>
@@ -5979,12 +6702,22 @@
       <c r="O79" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="36"/>
-      <c r="R79" s="36"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="36"/>
+      <c r="P79" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q79" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R79" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S79" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T79" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U79" s="38"/>
       <c r="V79" s="19"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
@@ -6007,11 +6740,11 @@
       </c>
       <c r="E80" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G80" s="34" t="s">
         <v>35</v>
@@ -6040,12 +6773,22 @@
       <c r="O80" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="36"/>
-      <c r="R80" s="36"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="36"/>
+      <c r="P80" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q80" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R80" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S80" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T80" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U80" s="38"/>
       <c r="V80" s="19"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
@@ -6072,7 +6815,7 @@
       </c>
       <c r="F81" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G81" s="34" t="s">
         <v>35</v>
@@ -6101,12 +6844,22 @@
       <c r="O81" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
+      <c r="P81" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q81" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R81" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S81" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T81" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U81" s="38"/>
       <c r="V81" s="19"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
@@ -6129,11 +6882,11 @@
       </c>
       <c r="E82" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G82" s="34" t="s">
         <v>10</v>
@@ -6162,12 +6915,22 @@
       <c r="O82" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="36"/>
-      <c r="R82" s="36"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="36"/>
+      <c r="P82" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q82" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R82" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S82" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T82" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U82" s="38"/>
       <c r="V82" s="19"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
@@ -6190,11 +6953,11 @@
       </c>
       <c r="E83" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" s="30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G83" s="34" t="s">
         <v>10</v>
@@ -6223,12 +6986,22 @@
       <c r="O83" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="36"/>
-      <c r="R83" s="36"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="36"/>
+      <c r="P83" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q83" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R83" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S83" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T83" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U83" s="38"/>
       <c r="V83" s="19"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
@@ -6251,11 +7024,11 @@
       </c>
       <c r="E84" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G84" s="34" t="s">
         <v>35</v>
@@ -6284,12 +7057,22 @@
       <c r="O84" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="36"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
+      <c r="P84" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q84" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R84" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S84" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T84" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U84" s="38"/>
       <c r="V84" s="19"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
@@ -6312,11 +7095,11 @@
       </c>
       <c r="E85" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" s="30">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G85" s="34" t="s">
         <v>35</v>
@@ -6345,12 +7128,22 @@
       <c r="O85" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="36"/>
-      <c r="R85" s="36"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="36"/>
+      <c r="P85" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q85" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="R85" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="S85" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T85" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U85" s="38"/>
       <c r="V85" s="19"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
@@ -6373,11 +7166,11 @@
       </c>
       <c r="E86" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" s="30">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G86" s="34" t="s">
         <v>35</v>
@@ -6406,12 +7199,22 @@
       <c r="O86" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="36"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="36"/>
+      <c r="P86" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q86" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="R86" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="S86" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="T86" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="U86" s="38"/>
       <c r="V86" s="19"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
@@ -6423,8 +7226,8 @@
       <c r="A87" s="30">
         <v>81.0</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
       <c r="D87" s="33" t="s">
         <v>10</v>
       </c>
@@ -6446,11 +7249,11 @@
       <c r="N87" s="33"/>
       <c r="O87" s="33"/>
       <c r="P87" s="33"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
+      <c r="Q87" s="38"/>
+      <c r="R87" s="38"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="38"/>
       <c r="V87" s="19"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
@@ -6462,8 +7265,8 @@
       <c r="A88" s="30">
         <v>82.0</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
       <c r="D88" s="33" t="s">
         <v>10</v>
       </c>
@@ -6485,11 +7288,11 @@
       <c r="N88" s="33"/>
       <c r="O88" s="33"/>
       <c r="P88" s="33"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
+      <c r="Q88" s="38"/>
+      <c r="R88" s="38"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="38"/>
       <c r="V88" s="19"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
@@ -6501,8 +7304,8 @@
       <c r="A89" s="30">
         <v>83.0</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38"/>
       <c r="D89" s="33" t="s">
         <v>10</v>
       </c>
@@ -6524,11 +7327,11 @@
       <c r="N89" s="33"/>
       <c r="O89" s="33"/>
       <c r="P89" s="33"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
+      <c r="Q89" s="38"/>
+      <c r="R89" s="38"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="38"/>
       <c r="V89" s="19"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
@@ -6540,8 +7343,8 @@
       <c r="A90" s="30">
         <v>84.0</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
       <c r="D90" s="33" t="s">
         <v>10</v>
       </c>
@@ -6563,11 +7366,11 @@
       <c r="N90" s="33"/>
       <c r="O90" s="33"/>
       <c r="P90" s="33"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
+      <c r="Q90" s="38"/>
+      <c r="R90" s="38"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="38"/>
       <c r="V90" s="19"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
@@ -6579,8 +7382,8 @@
       <c r="A91" s="30">
         <v>85.0</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="33" t="s">
         <v>10</v>
       </c>
@@ -6602,11 +7405,11 @@
       <c r="N91" s="33"/>
       <c r="O91" s="33"/>
       <c r="P91" s="33"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
+      <c r="Q91" s="38"/>
+      <c r="R91" s="38"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="38"/>
       <c r="V91" s="19"/>
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
@@ -6618,8 +7421,8 @@
       <c r="A92" s="30">
         <v>86.0</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
       <c r="D92" s="33" t="s">
         <v>10</v>
       </c>
@@ -6641,11 +7444,11 @@
       <c r="N92" s="33"/>
       <c r="O92" s="33"/>
       <c r="P92" s="33"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="38"/>
       <c r="V92" s="19"/>
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
@@ -6654,27 +7457,27 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="39"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
-      <c r="N93" s="39"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="38"/>
-      <c r="R93" s="38"/>
-      <c r="S93" s="38"/>
-      <c r="T93" s="38"/>
-      <c r="U93" s="38"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>

--- a/attendance-files/EsIndia/EsIndia Attendance - A.xlsx
+++ b/attendance-files/EsIndia/EsIndia Attendance - A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="194">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F7" s="30">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:U7,"P")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>35</v>
@@ -1605,7 +1605,9 @@
       <c r="T7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="38"/>
+      <c r="U7" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V7" s="19"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
@@ -1632,7 +1634,7 @@
       </c>
       <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>35</v>
@@ -1676,7 +1678,9 @@
       <c r="T8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U8" s="38"/>
+      <c r="U8" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V8" s="19"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -1699,7 +1703,7 @@
       </c>
       <c r="E9" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" si="2"/>
@@ -1747,7 +1751,9 @@
       <c r="T9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="38"/>
+      <c r="U9" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V9" s="19"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -1774,7 +1780,7 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>35</v>
@@ -1818,7 +1824,9 @@
       <c r="T10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="38"/>
+      <c r="U10" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V10" s="19"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -1841,7 +1849,7 @@
       </c>
       <c r="E11" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" si="2"/>
@@ -1889,7 +1897,9 @@
       <c r="T11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="38"/>
+      <c r="U11" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V11" s="19"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -1912,7 +1922,7 @@
       </c>
       <c r="E12" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" si="2"/>
@@ -1960,7 +1970,9 @@
       <c r="T12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="38"/>
+      <c r="U12" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V12" s="19"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -1983,7 +1995,7 @@
       </c>
       <c r="E13" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" si="2"/>
@@ -2031,7 +2043,9 @@
       <c r="T13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U13" s="38"/>
+      <c r="U13" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V13" s="19"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -2054,7 +2068,7 @@
       </c>
       <c r="E14" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="2"/>
@@ -2102,7 +2116,9 @@
       <c r="T14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="38"/>
+      <c r="U14" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V14" s="19"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -2129,7 +2145,7 @@
       </c>
       <c r="F15" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>35</v>
@@ -2173,7 +2189,9 @@
       <c r="T15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="38"/>
+      <c r="U15" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V15" s="19"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -2196,7 +2214,7 @@
       </c>
       <c r="E16" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" si="2"/>
@@ -2244,7 +2262,9 @@
       <c r="T16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U16" s="38"/>
+      <c r="U16" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V16" s="19"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
@@ -2271,7 +2291,7 @@
       </c>
       <c r="F17" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>35</v>
@@ -2315,7 +2335,9 @@
       <c r="T17" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U17" s="38"/>
+      <c r="U17" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V17" s="19"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
@@ -2342,7 +2364,7 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>35</v>
@@ -2386,7 +2408,9 @@
       <c r="T18" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U18" s="38"/>
+      <c r="U18" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V18" s="19"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -2413,7 +2437,7 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" s="34" t="s">
         <v>35</v>
@@ -2457,7 +2481,9 @@
       <c r="T19" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="38"/>
+      <c r="U19" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V19" s="19"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -2480,7 +2506,7 @@
       </c>
       <c r="E20" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" si="2"/>
@@ -2528,7 +2554,9 @@
       <c r="T20" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U20" s="38"/>
+      <c r="U20" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V20" s="19"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -2551,7 +2579,7 @@
       </c>
       <c r="E21" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" si="2"/>
@@ -2599,7 +2627,9 @@
       <c r="T21" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U21" s="38"/>
+      <c r="U21" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V21" s="19"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -2626,7 +2656,7 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>35</v>
@@ -2670,7 +2700,9 @@
       <c r="T22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U22" s="38"/>
+      <c r="U22" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V22" s="19"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -2697,7 +2729,7 @@
       </c>
       <c r="F23" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="34" t="s">
         <v>35</v>
@@ -2741,7 +2773,9 @@
       <c r="T23" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U23" s="38"/>
+      <c r="U23" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V23" s="19"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
@@ -2768,7 +2802,7 @@
       </c>
       <c r="F24" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>35</v>
@@ -2812,7 +2846,9 @@
       <c r="T24" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U24" s="38"/>
+      <c r="U24" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V24" s="19"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
@@ -2835,7 +2871,7 @@
       </c>
       <c r="E25" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" si="2"/>
@@ -2883,7 +2919,9 @@
       <c r="T25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U25" s="38"/>
+      <c r="U25" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V25" s="19"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
@@ -2910,7 +2948,7 @@
       </c>
       <c r="F26" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>35</v>
@@ -2954,7 +2992,9 @@
       <c r="T26" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="38"/>
+      <c r="U26" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V26" s="19"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -2977,7 +3017,7 @@
       </c>
       <c r="E27" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="30">
         <f t="shared" si="2"/>
@@ -3025,7 +3065,9 @@
       <c r="T27" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U27" s="38"/>
+      <c r="U27" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V27" s="19"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
@@ -3052,7 +3094,7 @@
       </c>
       <c r="F28" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>35</v>
@@ -3096,7 +3138,9 @@
       <c r="T28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U28" s="38"/>
+      <c r="U28" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V28" s="19"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
@@ -3123,7 +3167,7 @@
       </c>
       <c r="F29" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>35</v>
@@ -3167,7 +3211,9 @@
       <c r="T29" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U29" s="38"/>
+      <c r="U29" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V29" s="19"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
@@ -3190,7 +3236,7 @@
       </c>
       <c r="E30" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" si="2"/>
@@ -3238,7 +3284,9 @@
       <c r="T30" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U30" s="38"/>
+      <c r="U30" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V30" s="19"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
@@ -3265,7 +3313,7 @@
       </c>
       <c r="F31" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" s="34" t="s">
         <v>35</v>
@@ -3309,7 +3357,9 @@
       <c r="T31" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U31" s="38"/>
+      <c r="U31" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V31" s="19"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
@@ -3332,7 +3382,7 @@
       </c>
       <c r="E32" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="2"/>
@@ -3380,7 +3430,9 @@
       <c r="T32" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U32" s="38"/>
+      <c r="U32" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V32" s="19"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
@@ -3407,7 +3459,7 @@
       </c>
       <c r="F33" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>35</v>
@@ -3451,7 +3503,9 @@
       <c r="T33" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U33" s="38"/>
+      <c r="U33" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V33" s="19"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
@@ -3478,7 +3532,7 @@
       </c>
       <c r="F34" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>35</v>
@@ -3522,7 +3576,9 @@
       <c r="T34" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U34" s="38"/>
+      <c r="U34" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V34" s="19"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
@@ -3549,7 +3605,7 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>35</v>
@@ -3593,7 +3649,9 @@
       <c r="T35" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U35" s="38"/>
+      <c r="U35" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V35" s="19"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
@@ -3620,7 +3678,7 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>35</v>
@@ -3664,7 +3722,9 @@
       <c r="T36" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U36" s="38"/>
+      <c r="U36" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V36" s="19"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
@@ -3691,7 +3751,7 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>35</v>
@@ -3735,7 +3795,9 @@
       <c r="T37" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U37" s="38"/>
+      <c r="U37" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V37" s="19"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
@@ -3762,7 +3824,7 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>35</v>
@@ -3806,7 +3868,9 @@
       <c r="T38" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="38"/>
+      <c r="U38" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V38" s="19"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
@@ -3829,7 +3893,7 @@
       </c>
       <c r="E39" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" si="2"/>
@@ -3877,7 +3941,9 @@
       <c r="T39" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U39" s="38"/>
+      <c r="U39" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V39" s="19"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
@@ -3900,7 +3966,7 @@
       </c>
       <c r="E40" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="30">
         <f t="shared" si="2"/>
@@ -3948,7 +4014,9 @@
       <c r="T40" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U40" s="38"/>
+      <c r="U40" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V40" s="19"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
@@ -3971,7 +4039,7 @@
       </c>
       <c r="E41" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" si="2"/>
@@ -4019,7 +4087,9 @@
       <c r="T41" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U41" s="38"/>
+      <c r="U41" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V41" s="19"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
@@ -4042,7 +4112,7 @@
       </c>
       <c r="E42" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="30">
         <f t="shared" si="2"/>
@@ -4090,7 +4160,9 @@
       <c r="T42" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U42" s="38"/>
+      <c r="U42" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V42" s="19"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
@@ -4113,7 +4185,7 @@
       </c>
       <c r="E43" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="30">
         <f t="shared" si="2"/>
@@ -4161,7 +4233,9 @@
       <c r="T43" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U43" s="38"/>
+      <c r="U43" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V43" s="19"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
@@ -4188,7 +4262,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" s="34" t="s">
         <v>35</v>
@@ -4232,7 +4306,9 @@
       <c r="T44" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U44" s="38"/>
+      <c r="U44" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V44" s="19"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
@@ -4259,7 +4335,7 @@
       </c>
       <c r="F45" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="34" t="s">
         <v>35</v>
@@ -4303,7 +4379,9 @@
       <c r="T45" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U45" s="38"/>
+      <c r="U45" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V45" s="19"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
@@ -4330,7 +4408,7 @@
       </c>
       <c r="F46" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>35</v>
@@ -4374,7 +4452,9 @@
       <c r="T46" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U46" s="38"/>
+      <c r="U46" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V46" s="19"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
@@ -4401,7 +4481,7 @@
       </c>
       <c r="F47" s="30">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" s="34" t="s">
         <v>35</v>
@@ -4445,7 +4525,9 @@
       <c r="T47" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U47" s="38"/>
+      <c r="U47" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V47" s="19"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
@@ -4472,7 +4554,7 @@
       </c>
       <c r="F48" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="34" t="s">
         <v>35</v>
@@ -4516,7 +4598,9 @@
       <c r="T48" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U48" s="38"/>
+      <c r="U48" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V48" s="19"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
@@ -4539,7 +4623,7 @@
       </c>
       <c r="E49" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="30">
         <f t="shared" si="2"/>
@@ -4587,7 +4671,9 @@
       <c r="T49" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U49" s="38"/>
+      <c r="U49" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V49" s="19"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
@@ -4614,7 +4700,7 @@
       </c>
       <c r="F50" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" s="34" t="s">
         <v>35</v>
@@ -4658,7 +4744,9 @@
       <c r="T50" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U50" s="38"/>
+      <c r="U50" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V50" s="19"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
@@ -4685,7 +4773,7 @@
       </c>
       <c r="F51" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G51" s="34" t="s">
         <v>35</v>
@@ -4729,7 +4817,9 @@
       <c r="T51" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U51" s="38"/>
+      <c r="U51" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V51" s="19"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
@@ -4752,7 +4842,7 @@
       </c>
       <c r="E52" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="30">
         <f t="shared" si="2"/>
@@ -4800,7 +4890,9 @@
       <c r="T52" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U52" s="38"/>
+      <c r="U52" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V52" s="19"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
@@ -4827,7 +4919,7 @@
       </c>
       <c r="F53" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="34" t="s">
         <v>35</v>
@@ -4871,7 +4963,9 @@
       <c r="T53" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U53" s="38"/>
+      <c r="U53" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V53" s="19"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
@@ -4894,7 +4988,7 @@
       </c>
       <c r="E54" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="30">
         <f t="shared" si="2"/>
@@ -4942,7 +5036,9 @@
       <c r="T54" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U54" s="38"/>
+      <c r="U54" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V54" s="19"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
@@ -4969,7 +5065,7 @@
       </c>
       <c r="F55" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" s="34" t="s">
         <v>10</v>
@@ -5013,7 +5109,9 @@
       <c r="T55" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U55" s="38"/>
+      <c r="U55" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V55" s="19"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
@@ -5036,7 +5134,7 @@
       </c>
       <c r="E56" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="30">
         <f t="shared" si="2"/>
@@ -5084,7 +5182,9 @@
       <c r="T56" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U56" s="38"/>
+      <c r="U56" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V56" s="19"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
@@ -5107,7 +5207,7 @@
       </c>
       <c r="E57" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="30">
         <f t="shared" si="2"/>
@@ -5155,7 +5255,9 @@
       <c r="T57" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U57" s="38"/>
+      <c r="U57" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V57" s="19"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
@@ -5182,7 +5284,7 @@
       </c>
       <c r="F58" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" s="34" t="s">
         <v>35</v>
@@ -5226,7 +5328,9 @@
       <c r="T58" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U58" s="38"/>
+      <c r="U58" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V58" s="19"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
@@ -5253,7 +5357,7 @@
       </c>
       <c r="F59" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="34" t="s">
         <v>35</v>
@@ -5297,7 +5401,9 @@
       <c r="T59" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U59" s="38"/>
+      <c r="U59" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V59" s="19"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
@@ -5324,7 +5430,7 @@
       </c>
       <c r="F60" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" s="34" t="s">
         <v>35</v>
@@ -5368,7 +5474,9 @@
       <c r="T60" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U60" s="38"/>
+      <c r="U60" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V60" s="19"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
@@ -5391,7 +5499,7 @@
       </c>
       <c r="E61" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="30">
         <f t="shared" si="2"/>
@@ -5439,7 +5547,9 @@
       <c r="T61" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U61" s="38"/>
+      <c r="U61" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V61" s="19"/>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
@@ -5462,7 +5572,7 @@
       </c>
       <c r="E62" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="30">
         <f t="shared" si="2"/>
@@ -5510,7 +5620,9 @@
       <c r="T62" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U62" s="38"/>
+      <c r="U62" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V62" s="19"/>
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
@@ -5537,7 +5649,7 @@
       </c>
       <c r="F63" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G63" s="34" t="s">
         <v>35</v>
@@ -5581,7 +5693,9 @@
       <c r="T63" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U63" s="38"/>
+      <c r="U63" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V63" s="19"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
@@ -5604,7 +5718,7 @@
       </c>
       <c r="E64" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="30">
         <f t="shared" si="2"/>
@@ -5652,7 +5766,9 @@
       <c r="T64" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U64" s="38"/>
+      <c r="U64" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V64" s="19"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
@@ -5675,7 +5791,7 @@
       </c>
       <c r="E65" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="30">
         <f t="shared" si="2"/>
@@ -5723,7 +5839,9 @@
       <c r="T65" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U65" s="38"/>
+      <c r="U65" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V65" s="19"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
@@ -5750,7 +5868,7 @@
       </c>
       <c r="F66" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" s="34" t="s">
         <v>35</v>
@@ -5794,7 +5912,9 @@
       <c r="T66" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U66" s="38"/>
+      <c r="U66" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V66" s="19"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
@@ -5817,7 +5937,7 @@
       </c>
       <c r="E67" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="30">
         <f t="shared" si="2"/>
@@ -5865,7 +5985,9 @@
       <c r="T67" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U67" s="38"/>
+      <c r="U67" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V67" s="19"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
@@ -5888,7 +6010,7 @@
       </c>
       <c r="E68" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="30">
         <f t="shared" si="2"/>
@@ -5936,7 +6058,9 @@
       <c r="T68" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U68" s="38"/>
+      <c r="U68" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V68" s="19"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
@@ -5959,7 +6083,7 @@
       </c>
       <c r="E69" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="30">
         <f t="shared" si="2"/>
@@ -6007,7 +6131,9 @@
       <c r="T69" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U69" s="38"/>
+      <c r="U69" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V69" s="19"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
@@ -6034,7 +6160,7 @@
       </c>
       <c r="F70" s="30">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G70" s="34" t="s">
         <v>35</v>
@@ -6078,7 +6204,9 @@
       <c r="T70" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U70" s="38"/>
+      <c r="U70" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V70" s="19"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
@@ -6105,7 +6233,7 @@
       </c>
       <c r="F71" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" s="34" t="s">
         <v>10</v>
@@ -6149,7 +6277,9 @@
       <c r="T71" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U71" s="38"/>
+      <c r="U71" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V71" s="19"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
@@ -6176,7 +6306,7 @@
       </c>
       <c r="F72" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" s="34" t="s">
         <v>35</v>
@@ -6220,7 +6350,9 @@
       <c r="T72" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U72" s="38"/>
+      <c r="U72" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V72" s="19"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
@@ -6247,7 +6379,7 @@
       </c>
       <c r="F73" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" s="34" t="s">
         <v>35</v>
@@ -6291,7 +6423,9 @@
       <c r="T73" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U73" s="38"/>
+      <c r="U73" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V73" s="19"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
@@ -6318,7 +6452,7 @@
       </c>
       <c r="F74" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" s="34" t="s">
         <v>35</v>
@@ -6362,7 +6496,9 @@
       <c r="T74" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U74" s="38"/>
+      <c r="U74" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V74" s="19"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
@@ -6385,7 +6521,7 @@
       </c>
       <c r="E75" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="30">
         <f t="shared" si="2"/>
@@ -6433,7 +6569,9 @@
       <c r="T75" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U75" s="38"/>
+      <c r="U75" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V75" s="19"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
@@ -6456,7 +6594,7 @@
       </c>
       <c r="E76" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="30">
         <f t="shared" si="2"/>
@@ -6504,7 +6642,9 @@
       <c r="T76" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U76" s="38"/>
+      <c r="U76" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V76" s="19"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
@@ -6531,7 +6671,7 @@
       </c>
       <c r="F77" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G77" s="34" t="s">
         <v>35</v>
@@ -6575,7 +6715,9 @@
       <c r="T77" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U77" s="38"/>
+      <c r="U77" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V77" s="19"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
@@ -6602,7 +6744,7 @@
       </c>
       <c r="F78" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" s="34" t="s">
         <v>35</v>
@@ -6646,7 +6788,9 @@
       <c r="T78" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U78" s="38"/>
+      <c r="U78" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V78" s="19"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
@@ -6669,7 +6813,7 @@
       </c>
       <c r="E79" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" s="30">
         <f t="shared" si="2"/>
@@ -6717,7 +6861,9 @@
       <c r="T79" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U79" s="38"/>
+      <c r="U79" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V79" s="19"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
@@ -6744,7 +6890,7 @@
       </c>
       <c r="F80" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" s="34" t="s">
         <v>35</v>
@@ -6788,7 +6934,9 @@
       <c r="T80" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U80" s="38"/>
+      <c r="U80" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V80" s="19"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
@@ -6815,7 +6963,7 @@
       </c>
       <c r="F81" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G81" s="34" t="s">
         <v>35</v>
@@ -6859,7 +7007,9 @@
       <c r="T81" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U81" s="38"/>
+      <c r="U81" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V81" s="19"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
@@ -6886,7 +7036,7 @@
       </c>
       <c r="F82" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" s="34" t="s">
         <v>10</v>
@@ -6930,7 +7080,9 @@
       <c r="T82" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U82" s="38"/>
+      <c r="U82" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V82" s="19"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
@@ -6957,7 +7109,7 @@
       </c>
       <c r="F83" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G83" s="34" t="s">
         <v>10</v>
@@ -7001,7 +7153,9 @@
       <c r="T83" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U83" s="38"/>
+      <c r="U83" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V83" s="19"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
@@ -7028,7 +7182,7 @@
       </c>
       <c r="F84" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" s="34" t="s">
         <v>35</v>
@@ -7072,7 +7226,9 @@
       <c r="T84" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U84" s="38"/>
+      <c r="U84" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V84" s="19"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
@@ -7095,7 +7251,7 @@
       </c>
       <c r="E85" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" s="30">
         <f t="shared" si="2"/>
@@ -7143,7 +7299,9 @@
       <c r="T85" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="U85" s="38"/>
+      <c r="U85" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="V85" s="19"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
@@ -7170,7 +7328,7 @@
       </c>
       <c r="F86" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" s="34" t="s">
         <v>35</v>
@@ -7214,7 +7372,9 @@
       <c r="T86" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="U86" s="38"/>
+      <c r="U86" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="V86" s="19"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>

--- a/attendance-files/EsIndia/EsIndia Attendance - A.xlsx
+++ b/attendance-files/EsIndia/EsIndia Attendance - A.xlsx
@@ -5718,11 +5718,11 @@
       </c>
       <c r="E64" s="30">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F64" s="30">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" s="34" t="s">
         <v>10</v>
@@ -5767,7 +5767,7 @@
         <v>10</v>
       </c>
       <c r="U64" s="37" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="V64" s="19"/>
       <c r="W64" s="6"/>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="E72" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" s="30">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" s="34" t="s">
         <v>35</v>
@@ -6348,7 +6348,7 @@
         <v>35</v>
       </c>
       <c r="T72" s="37" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="U72" s="37" t="s">
         <v>35</v>
@@ -6375,11 +6375,11 @@
       </c>
       <c r="E73" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="30">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G73" s="34" t="s">
         <v>35</v>
@@ -6421,7 +6421,7 @@
         <v>35</v>
       </c>
       <c r="T73" s="37" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="U73" s="37" t="s">
         <v>35</v>
